--- a/biology/Médecine/Contribution_à_la_conception_des_aphasies/Contribution_à_la_conception_des_aphasies.xlsx
+++ b/biology/Médecine/Contribution_à_la_conception_des_aphasies/Contribution_à_la_conception_des_aphasies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Contribution_%C3%A0_la_conception_des_aphasies</t>
+          <t>Contribution_à_la_conception_des_aphasies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Contribution à la conception des aphasies est l'un des premiers ouvrages de Sigmund Freud, publié en 1891 sous le titre Zur Auffassung der Aphasien. Eine kritische Studie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Contribution_%C3%A0_la_conception_des_aphasies</t>
+          <t>Contribution_à_la_conception_des_aphasies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation de l'ouvrage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appartenant à la période « prépsychanalytique », il s'agit d’une monographie où Freud reprend les théories de Hughlings Jackson pour étudier les troubles du langage d'un point de vue fonctionnel plutôt que neurophysiologique[2]. Freud remplace l'idée de « localisations cérébrales » par celle de l’« associationnisme » qui préfigure la conceptualisation d'un appareil psychique qu'on retrouve dans sa métapsychologie[3]. Georges Lanteri-Laura explique comment Freud, « dans les parties descriptives de son travail, […] distingue les représentations de mots et les représentations de choses, et les liens avec les images auditives, les images visuelles et les images motrices en jeu dans ces phénomènes »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appartenant à la période « prépsychanalytique », il s'agit d’une monographie où Freud reprend les théories de Hughlings Jackson pour étudier les troubles du langage d'un point de vue fonctionnel plutôt que neurophysiologique. Freud remplace l'idée de « localisations cérébrales » par celle de l’« associationnisme » qui préfigure la conceptualisation d'un appareil psychique qu'on retrouve dans sa métapsychologie. Georges Lanteri-Laura explique comment Freud, « dans les parties descriptives de son travail, […] distingue les représentations de mots et les représentations de choses, et les liens avec les images auditives, les images visuelles et les images motrices en jeu dans ces phénomènes ».
 </t>
         </is>
       </c>
